--- a/new_exp_normal/conditions.xlsx
+++ b/new_exp_normal/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\venka\Desktop\Psycho_Exp_Perceived_Time\new_exp_normal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D3239F-7D53-460A-8E47-C36C60477C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF33CA45-8E81-4289-AEE6-0DC47D439283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="225" windowWidth="29040" windowHeight="16095" xr2:uid="{48A33211-37E6-4DD3-9771-BD3DFA26F7A6}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A2" sqref="A2:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,27 +463,30 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -491,60 +494,63 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>4</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -552,165 +558,159 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>16</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="B28" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B31" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>10</v>
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>13</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>19</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
